--- a/custom_target_search.xlsx
+++ b/custom_target_search.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2109" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2132" uniqueCount="843">
   <si>
     <t>sequence</t>
   </si>
@@ -118,6 +118,9 @@
     <t>circRNA__1_9871186-9877989(-)</t>
   </si>
   <si>
+    <t>circRNA__1_9931890-9934860(-)</t>
+  </si>
+  <si>
     <t>72</t>
   </si>
   <si>
@@ -244,6 +247,9 @@
     <t>94</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>90</t>
   </si>
   <si>
@@ -1201,27 +1207,6 @@
     <t>hsa-miR-3123</t>
   </si>
   <si>
-    <t>hsa-miR-875-3p</t>
-  </si>
-  <si>
-    <t>hsa-miR-4426</t>
-  </si>
-  <si>
-    <t>hsa-miR-605-3p</t>
-  </si>
-  <si>
-    <t>hsa-miR-548v</t>
-  </si>
-  <si>
-    <t>hsa-miR-4465</t>
-  </si>
-  <si>
-    <t>hsa-miR-26b-5p</t>
-  </si>
-  <si>
-    <t>hsa-miR-26a-5p</t>
-  </si>
-  <si>
     <t>hsa-miR-6730-5p</t>
   </si>
   <si>
@@ -1399,6 +1384,21 @@
     <t>hsa-miR-4267</t>
   </si>
   <si>
+    <t>hsa-miR-4708-3p</t>
+  </si>
+  <si>
+    <t>hsa-miR-1277-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-4481</t>
+  </si>
+  <si>
+    <t>hsa-miR-4459</t>
+  </si>
+  <si>
+    <t>hsa-miR-302f</t>
+  </si>
+  <si>
     <t>www.mirdb.org/cgi-bin/mature_mir.cgi?name=hsa-miR-4293</t>
   </si>
   <si>
@@ -2353,27 +2353,6 @@
     <t>www.mirdb.org/cgi-bin/mature_mir.cgi?name=hsa-miR-3123</t>
   </si>
   <si>
-    <t>www.mirdb.org/cgi-bin/mature_mir.cgi?name=hsa-miR-875-3p</t>
-  </si>
-  <si>
-    <t>www.mirdb.org/cgi-bin/mature_mir.cgi?name=hsa-miR-4426</t>
-  </si>
-  <si>
-    <t>www.mirdb.org/cgi-bin/mature_mir.cgi?name=hsa-miR-605-3p</t>
-  </si>
-  <si>
-    <t>www.mirdb.org/cgi-bin/mature_mir.cgi?name=hsa-miR-548v</t>
-  </si>
-  <si>
-    <t>www.mirdb.org/cgi-bin/mature_mir.cgi?name=hsa-miR-4465</t>
-  </si>
-  <si>
-    <t>www.mirdb.org/cgi-bin/mature_mir.cgi?name=hsa-miR-26b-5p</t>
-  </si>
-  <si>
-    <t>www.mirdb.org/cgi-bin/mature_mir.cgi?name=hsa-miR-26a-5p</t>
-  </si>
-  <si>
     <t>www.mirdb.org/cgi-bin/mature_mir.cgi?name=hsa-miR-6730-5p</t>
   </si>
   <si>
@@ -2549,6 +2528,21 @@
   </si>
   <si>
     <t>www.mirdb.org/cgi-bin/mature_mir.cgi?name=hsa-miR-4267</t>
+  </si>
+  <si>
+    <t>www.mirdb.org/cgi-bin/mature_mir.cgi?name=hsa-miR-4708-3p</t>
+  </si>
+  <si>
+    <t>www.mirdb.org/cgi-bin/mature_mir.cgi?name=hsa-miR-1277-5p</t>
+  </si>
+  <si>
+    <t>www.mirdb.org/cgi-bin/mature_mir.cgi?name=hsa-miR-4481</t>
+  </si>
+  <si>
+    <t>www.mirdb.org/cgi-bin/mature_mir.cgi?name=hsa-miR-4459</t>
+  </si>
+  <si>
+    <t>www.mirdb.org/cgi-bin/mature_mir.cgi?name=hsa-miR-302f</t>
   </si>
 </sst>
 </file>
@@ -2906,7 +2900,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E527"/>
+  <dimension ref="A1:E533"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2934,13 +2928,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
         <v>461</v>
@@ -2951,13 +2945,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
         <v>462</v>
@@ -2968,13 +2962,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
         <v>463</v>
@@ -2985,13 +2979,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
         <v>464</v>
@@ -3002,13 +2996,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E6" t="s">
         <v>465</v>
@@ -3019,13 +3013,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7">
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E7" t="s">
         <v>466</v>
@@ -3036,13 +3030,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
         <v>467</v>
@@ -3053,13 +3047,13 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9">
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E9" t="s">
         <v>468</v>
@@ -3070,13 +3064,13 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10">
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E10" t="s">
         <v>469</v>
@@ -3087,13 +3081,13 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11">
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E11" t="s">
         <v>470</v>
@@ -3104,13 +3098,13 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12">
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E12" t="s">
         <v>471</v>
@@ -3121,13 +3115,13 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E13" t="s">
         <v>472</v>
@@ -3138,13 +3132,13 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14">
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E14" t="s">
         <v>473</v>
@@ -3155,13 +3149,13 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15">
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E15" t="s">
         <v>474</v>
@@ -3172,13 +3166,13 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E16" t="s">
         <v>475</v>
@@ -3189,13 +3183,13 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17">
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E17" t="s">
         <v>476</v>
@@ -3206,13 +3200,13 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18">
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E18" t="s">
         <v>477</v>
@@ -3223,13 +3217,13 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19">
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E19" t="s">
         <v>478</v>
@@ -3240,13 +3234,13 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20">
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E20" t="s">
         <v>479</v>
@@ -3257,13 +3251,13 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E21" t="s">
         <v>480</v>
@@ -3274,13 +3268,13 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C22">
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E22" t="s">
         <v>481</v>
@@ -3291,13 +3285,13 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E23" t="s">
         <v>464</v>
@@ -3308,13 +3302,13 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C24">
         <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E24" t="s">
         <v>477</v>
@@ -3325,13 +3319,13 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C25">
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E25" t="s">
         <v>482</v>
@@ -3342,13 +3336,13 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C26">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E26" t="s">
         <v>479</v>
@@ -3359,13 +3353,13 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C27">
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E27" t="s">
         <v>478</v>
@@ -3376,13 +3370,13 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E28" t="s">
         <v>483</v>
@@ -3393,13 +3387,13 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E29" t="s">
         <v>484</v>
@@ -3410,13 +3404,13 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C30">
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E30" t="s">
         <v>485</v>
@@ -3427,13 +3421,13 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E31" t="s">
         <v>486</v>
@@ -3444,13 +3438,13 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E32" t="s">
         <v>487</v>
@@ -3461,13 +3455,13 @@
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C33">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E33" t="s">
         <v>467</v>
@@ -3478,13 +3472,13 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E34" t="s">
         <v>488</v>
@@ -3495,13 +3489,13 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C35">
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E35" t="s">
         <v>489</v>
@@ -3512,13 +3506,13 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E36" t="s">
         <v>490</v>
@@ -3529,13 +3523,13 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C37">
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E37" t="s">
         <v>491</v>
@@ -3546,13 +3540,13 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E38" t="s">
         <v>492</v>
@@ -3563,13 +3557,13 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C39">
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E39" t="s">
         <v>464</v>
@@ -3580,13 +3574,13 @@
         <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E40" t="s">
         <v>493</v>
@@ -3597,13 +3591,13 @@
         <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E41" t="s">
         <v>494</v>
@@ -3614,13 +3608,13 @@
         <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E42" t="s">
         <v>495</v>
@@ -3631,13 +3625,13 @@
         <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E43" t="s">
         <v>496</v>
@@ -3648,13 +3642,13 @@
         <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E44" t="s">
         <v>497</v>
@@ -3665,13 +3659,13 @@
         <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E45" t="s">
         <v>498</v>
@@ -3682,13 +3676,13 @@
         <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C46">
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E46" t="s">
         <v>499</v>
@@ -3699,13 +3693,13 @@
         <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C47">
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E47" t="s">
         <v>500</v>
@@ -3716,13 +3710,13 @@
         <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E48" t="s">
         <v>501</v>
@@ -3733,13 +3727,13 @@
         <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E49" t="s">
         <v>502</v>
@@ -3750,13 +3744,13 @@
         <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C50">
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E50" t="s">
         <v>503</v>
@@ -3767,13 +3761,13 @@
         <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E51" t="s">
         <v>504</v>
@@ -3784,13 +3778,13 @@
         <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C52">
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E52" t="s">
         <v>505</v>
@@ -3801,13 +3795,13 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C53">
         <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E53" t="s">
         <v>506</v>
@@ -3818,13 +3812,13 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C54">
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E54" t="s">
         <v>507</v>
@@ -3835,13 +3829,13 @@
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E55" t="s">
         <v>508</v>
@@ -3852,13 +3846,13 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C56">
         <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E56" t="s">
         <v>476</v>
@@ -3869,13 +3863,13 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C57">
         <v>5</v>
       </c>
       <c r="D57" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E57" t="s">
         <v>509</v>
@@ -3886,13 +3880,13 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C58">
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E58" t="s">
         <v>480</v>
@@ -3903,13 +3897,13 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C59">
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E59" t="s">
         <v>510</v>
@@ -3920,13 +3914,13 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C60">
         <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E60" t="s">
         <v>466</v>
@@ -3937,13 +3931,13 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C61">
         <v>8</v>
       </c>
       <c r="D61" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E61" t="s">
         <v>511</v>
@@ -3954,13 +3948,13 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C62">
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E62" t="s">
         <v>512</v>
@@ -3971,13 +3965,13 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C63">
         <v>6</v>
       </c>
       <c r="D63" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E63" t="s">
         <v>468</v>
@@ -3988,13 +3982,13 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C64">
         <v>6</v>
       </c>
       <c r="D64" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E64" t="s">
         <v>469</v>
@@ -4005,13 +3999,13 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C65">
         <v>6</v>
       </c>
       <c r="D65" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E65" t="s">
         <v>470</v>
@@ -4022,13 +4016,13 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C66">
         <v>6</v>
       </c>
       <c r="D66" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E66" t="s">
         <v>471</v>
@@ -4039,13 +4033,13 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C67">
         <v>6</v>
       </c>
       <c r="D67" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E67" t="s">
         <v>472</v>
@@ -4056,13 +4050,13 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C68">
         <v>6</v>
       </c>
       <c r="D68" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E68" t="s">
         <v>473</v>
@@ -4073,13 +4067,13 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C69">
         <v>6</v>
       </c>
       <c r="D69" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E69" t="s">
         <v>474</v>
@@ -4090,13 +4084,13 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C70">
         <v>5</v>
       </c>
       <c r="D70" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E70" t="s">
         <v>513</v>
@@ -4107,13 +4101,13 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C71">
         <v>5</v>
       </c>
       <c r="D71" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E71" t="s">
         <v>514</v>
@@ -4124,13 +4118,13 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E72" t="s">
         <v>515</v>
@@ -4141,13 +4135,13 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C73">
         <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E73" t="s">
         <v>516</v>
@@ -4158,13 +4152,13 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E74" t="s">
         <v>517</v>
@@ -4175,13 +4169,13 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E75" t="s">
         <v>518</v>
@@ -4192,13 +4186,13 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C76">
         <v>5</v>
       </c>
       <c r="D76" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E76" t="s">
         <v>519</v>
@@ -4209,13 +4203,13 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E77" t="s">
         <v>520</v>
@@ -4226,13 +4220,13 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E78" t="s">
         <v>521</v>
@@ -4243,13 +4237,13 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C79">
         <v>3</v>
       </c>
       <c r="D79" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E79" t="s">
         <v>522</v>
@@ -4260,13 +4254,13 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C80">
         <v>4</v>
       </c>
       <c r="D80" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E80" t="s">
         <v>523</v>
@@ -4277,13 +4271,13 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C81">
         <v>3</v>
       </c>
       <c r="D81" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E81" t="s">
         <v>524</v>
@@ -4294,13 +4288,13 @@
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C82">
         <v>2</v>
       </c>
       <c r="D82" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E82" t="s">
         <v>525</v>
@@ -4311,13 +4305,13 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C83">
         <v>2</v>
       </c>
       <c r="D83" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E83" t="s">
         <v>526</v>
@@ -4328,13 +4322,13 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E84" t="s">
         <v>527</v>
@@ -4345,13 +4339,13 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C85">
         <v>5</v>
       </c>
       <c r="D85" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E85" t="s">
         <v>528</v>
@@ -4362,13 +4356,13 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
       <c r="D86" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E86" t="s">
         <v>529</v>
@@ -4379,13 +4373,13 @@
         <v>12</v>
       </c>
       <c r="B87" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C87">
         <v>2</v>
       </c>
       <c r="D87" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E87" t="s">
         <v>521</v>
@@ -4396,13 +4390,13 @@
         <v>12</v>
       </c>
       <c r="B88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E88" t="s">
         <v>530</v>
@@ -4413,13 +4407,13 @@
         <v>12</v>
       </c>
       <c r="B89" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
       <c r="D89" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E89" t="s">
         <v>531</v>
@@ -4430,13 +4424,13 @@
         <v>12</v>
       </c>
       <c r="B90" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C90">
         <v>4</v>
       </c>
       <c r="D90" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E90" t="s">
         <v>532</v>
@@ -4447,13 +4441,13 @@
         <v>12</v>
       </c>
       <c r="B91" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
       <c r="D91" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E91" t="s">
         <v>508</v>
@@ -4464,13 +4458,13 @@
         <v>12</v>
       </c>
       <c r="B92" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C92">
         <v>4</v>
       </c>
       <c r="D92" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E92" t="s">
         <v>533</v>
@@ -4481,13 +4475,13 @@
         <v>12</v>
       </c>
       <c r="B93" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C93">
         <v>4</v>
       </c>
       <c r="D93" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E93" t="s">
         <v>534</v>
@@ -4498,13 +4492,13 @@
         <v>12</v>
       </c>
       <c r="B94" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C94">
         <v>4</v>
       </c>
       <c r="D94" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E94" t="s">
         <v>535</v>
@@ -4515,13 +4509,13 @@
         <v>12</v>
       </c>
       <c r="B95" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C95">
         <v>5</v>
       </c>
       <c r="D95" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E95" t="s">
         <v>536</v>
@@ -4532,13 +4526,13 @@
         <v>12</v>
       </c>
       <c r="B96" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C96">
         <v>2</v>
       </c>
       <c r="D96" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E96" t="s">
         <v>537</v>
@@ -4549,13 +4543,13 @@
         <v>12</v>
       </c>
       <c r="B97" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C97">
         <v>2</v>
       </c>
       <c r="D97" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E97" t="s">
         <v>538</v>
@@ -4566,13 +4560,13 @@
         <v>12</v>
       </c>
       <c r="B98" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C98">
         <v>2</v>
       </c>
       <c r="D98" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E98" t="s">
         <v>539</v>
@@ -4583,13 +4577,13 @@
         <v>12</v>
       </c>
       <c r="B99" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C99">
         <v>2</v>
       </c>
       <c r="D99" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E99" t="s">
         <v>540</v>
@@ -4600,13 +4594,13 @@
         <v>12</v>
       </c>
       <c r="B100" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
       <c r="D100" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E100" t="s">
         <v>499</v>
@@ -4617,13 +4611,13 @@
         <v>12</v>
       </c>
       <c r="B101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
       <c r="D101" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E101" t="s">
         <v>541</v>
@@ -4634,13 +4628,13 @@
         <v>13</v>
       </c>
       <c r="B102" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C102">
         <v>7</v>
       </c>
       <c r="D102" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E102" t="s">
         <v>542</v>
@@ -4651,13 +4645,13 @@
         <v>13</v>
       </c>
       <c r="B103" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C103">
         <v>7</v>
       </c>
       <c r="D103" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E103" t="s">
         <v>543</v>
@@ -4668,13 +4662,13 @@
         <v>13</v>
       </c>
       <c r="B104" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
       <c r="D104" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E104" t="s">
         <v>544</v>
@@ -4685,13 +4679,13 @@
         <v>13</v>
       </c>
       <c r="B105" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
       <c r="D105" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E105" t="s">
         <v>545</v>
@@ -4702,13 +4696,13 @@
         <v>13</v>
       </c>
       <c r="B106" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C106">
         <v>8</v>
       </c>
       <c r="D106" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E106" t="s">
         <v>546</v>
@@ -4719,13 +4713,13 @@
         <v>13</v>
       </c>
       <c r="B107" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
       <c r="D107" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E107" t="s">
         <v>547</v>
@@ -4736,13 +4730,13 @@
         <v>13</v>
       </c>
       <c r="B108" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C108">
         <v>5</v>
       </c>
       <c r="D108" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E108" t="s">
         <v>548</v>
@@ -4753,13 +4747,13 @@
         <v>13</v>
       </c>
       <c r="B109" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
       <c r="D109" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E109" t="s">
         <v>549</v>
@@ -4770,13 +4764,13 @@
         <v>13</v>
       </c>
       <c r="B110" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C110">
         <v>4</v>
       </c>
       <c r="D110" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E110" t="s">
         <v>497</v>
@@ -4787,13 +4781,13 @@
         <v>13</v>
       </c>
       <c r="B111" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
       <c r="D111" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E111" t="s">
         <v>550</v>
@@ -4804,13 +4798,13 @@
         <v>13</v>
       </c>
       <c r="B112" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C112">
         <v>3</v>
       </c>
       <c r="D112" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E112" t="s">
         <v>510</v>
@@ -4821,13 +4815,13 @@
         <v>13</v>
       </c>
       <c r="B113" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C113">
         <v>1</v>
       </c>
       <c r="D113" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E113" t="s">
         <v>551</v>
@@ -4838,13 +4832,13 @@
         <v>13</v>
       </c>
       <c r="B114" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C114">
         <v>1</v>
       </c>
       <c r="D114" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E114" t="s">
         <v>552</v>
@@ -4855,13 +4849,13 @@
         <v>13</v>
       </c>
       <c r="B115" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
       <c r="D115" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E115" t="s">
         <v>553</v>
@@ -4872,13 +4866,13 @@
         <v>13</v>
       </c>
       <c r="B116" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C116">
         <v>7</v>
       </c>
       <c r="D116" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E116" t="s">
         <v>478</v>
@@ -4889,13 +4883,13 @@
         <v>13</v>
       </c>
       <c r="B117" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C117">
         <v>4</v>
       </c>
       <c r="D117" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E117" t="s">
         <v>509</v>
@@ -4906,13 +4900,13 @@
         <v>13</v>
       </c>
       <c r="B118" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C118">
         <v>3</v>
       </c>
       <c r="D118" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E118" t="s">
         <v>554</v>
@@ -4923,13 +4917,13 @@
         <v>13</v>
       </c>
       <c r="B119" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C119">
         <v>2</v>
       </c>
       <c r="D119" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E119" t="s">
         <v>555</v>
@@ -4940,13 +4934,13 @@
         <v>13</v>
       </c>
       <c r="B120" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C120">
         <v>2</v>
       </c>
       <c r="D120" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E120" t="s">
         <v>556</v>
@@ -4957,13 +4951,13 @@
         <v>13</v>
       </c>
       <c r="B121" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C121">
         <v>2</v>
       </c>
       <c r="D121" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E121" t="s">
         <v>557</v>
@@ -4974,13 +4968,13 @@
         <v>13</v>
       </c>
       <c r="B122" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C122">
         <v>5</v>
       </c>
       <c r="D122" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E122" t="s">
         <v>523</v>
@@ -4991,13 +4985,13 @@
         <v>13</v>
       </c>
       <c r="B123" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C123">
         <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E123" t="s">
         <v>558</v>
@@ -5008,13 +5002,13 @@
         <v>13</v>
       </c>
       <c r="B124" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C124">
         <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E124" t="s">
         <v>559</v>
@@ -5025,13 +5019,13 @@
         <v>13</v>
       </c>
       <c r="B125" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C125">
         <v>3</v>
       </c>
       <c r="D125" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E125" t="s">
         <v>560</v>
@@ -5042,13 +5036,13 @@
         <v>13</v>
       </c>
       <c r="B126" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C126">
         <v>6</v>
       </c>
       <c r="D126" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E126" t="s">
         <v>561</v>
@@ -5059,13 +5053,13 @@
         <v>13</v>
       </c>
       <c r="B127" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C127">
         <v>2</v>
       </c>
       <c r="D127" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E127" t="s">
         <v>562</v>
@@ -5076,13 +5070,13 @@
         <v>13</v>
       </c>
       <c r="B128" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C128">
         <v>2</v>
       </c>
       <c r="D128" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E128" t="s">
         <v>563</v>
@@ -5093,13 +5087,13 @@
         <v>13</v>
       </c>
       <c r="B129" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C129">
         <v>3</v>
       </c>
       <c r="D129" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E129" t="s">
         <v>564</v>
@@ -5110,13 +5104,13 @@
         <v>13</v>
       </c>
       <c r="B130" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C130">
         <v>4</v>
       </c>
       <c r="D130" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E130" t="s">
         <v>482</v>
@@ -5127,13 +5121,13 @@
         <v>13</v>
       </c>
       <c r="B131" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C131">
         <v>4</v>
       </c>
       <c r="D131" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E131" t="s">
         <v>467</v>
@@ -5144,13 +5138,13 @@
         <v>13</v>
       </c>
       <c r="B132" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C132">
         <v>2</v>
       </c>
       <c r="D132" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E132" t="s">
         <v>565</v>
@@ -5161,13 +5155,13 @@
         <v>14</v>
       </c>
       <c r="B133" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C133">
         <v>3</v>
       </c>
       <c r="D133" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E133" t="s">
         <v>510</v>
@@ -5178,13 +5172,13 @@
         <v>14</v>
       </c>
       <c r="B134" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C134">
         <v>3</v>
       </c>
       <c r="D134" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E134" t="s">
         <v>497</v>
@@ -5195,13 +5189,13 @@
         <v>14</v>
       </c>
       <c r="B135" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C135">
         <v>4</v>
       </c>
       <c r="D135" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E135" t="s">
         <v>548</v>
@@ -5212,13 +5206,13 @@
         <v>14</v>
       </c>
       <c r="B136" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C136">
         <v>1</v>
       </c>
       <c r="D136" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E136" t="s">
         <v>553</v>
@@ -5229,13 +5223,13 @@
         <v>14</v>
       </c>
       <c r="B137" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
       <c r="D137" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E137" t="s">
         <v>560</v>
@@ -5246,13 +5240,13 @@
         <v>14</v>
       </c>
       <c r="B138" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
       <c r="D138" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E138" t="s">
         <v>566</v>
@@ -5263,13 +5257,13 @@
         <v>14</v>
       </c>
       <c r="B139" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
       <c r="D139" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E139" t="s">
         <v>567</v>
@@ -5280,13 +5274,13 @@
         <v>14</v>
       </c>
       <c r="B140" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C140">
         <v>1</v>
       </c>
       <c r="D140" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E140" t="s">
         <v>555</v>
@@ -5297,13 +5291,13 @@
         <v>14</v>
       </c>
       <c r="B141" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
       <c r="D141" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E141" t="s">
         <v>556</v>
@@ -5314,13 +5308,13 @@
         <v>14</v>
       </c>
       <c r="B142" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C142">
         <v>1</v>
       </c>
       <c r="D142" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E142" t="s">
         <v>557</v>
@@ -5331,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B143" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
       <c r="D143" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E143" t="s">
         <v>568</v>
@@ -5348,13 +5342,13 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C144">
         <v>1</v>
       </c>
       <c r="D144" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E144" t="s">
         <v>569</v>
@@ -5365,13 +5359,13 @@
         <v>14</v>
       </c>
       <c r="B145" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
       <c r="D145" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E145" t="s">
         <v>570</v>
@@ -5382,13 +5376,13 @@
         <v>14</v>
       </c>
       <c r="B146" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
       <c r="D146" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E146" t="s">
         <v>480</v>
@@ -5399,13 +5393,13 @@
         <v>14</v>
       </c>
       <c r="B147" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
       <c r="D147" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E147" t="s">
         <v>571</v>
@@ -5416,13 +5410,13 @@
         <v>14</v>
       </c>
       <c r="B148" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
       <c r="D148" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E148" t="s">
         <v>572</v>
@@ -5433,13 +5427,13 @@
         <v>14</v>
       </c>
       <c r="B149" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C149">
         <v>3</v>
       </c>
       <c r="D149" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E149" t="s">
         <v>527</v>
@@ -5450,13 +5444,13 @@
         <v>14</v>
       </c>
       <c r="B150" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
       <c r="D150" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E150" t="s">
         <v>573</v>
@@ -5467,13 +5461,13 @@
         <v>14</v>
       </c>
       <c r="B151" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
       <c r="D151" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E151" t="s">
         <v>574</v>
@@ -5484,13 +5478,13 @@
         <v>14</v>
       </c>
       <c r="B152" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C152">
         <v>2</v>
       </c>
       <c r="D152" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E152" t="s">
         <v>575</v>
@@ -5501,13 +5495,13 @@
         <v>14</v>
       </c>
       <c r="B153" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C153">
         <v>1</v>
       </c>
       <c r="D153" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E153" t="s">
         <v>519</v>
@@ -5518,13 +5512,13 @@
         <v>14</v>
       </c>
       <c r="B154" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C154">
         <v>2</v>
       </c>
       <c r="D154" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E154" t="s">
         <v>561</v>
@@ -5535,13 +5529,13 @@
         <v>14</v>
       </c>
       <c r="B155" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
       <c r="D155" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E155" t="s">
         <v>576</v>
@@ -5552,13 +5546,13 @@
         <v>14</v>
       </c>
       <c r="B156" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
       <c r="D156" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E156" t="s">
         <v>577</v>
@@ -5569,13 +5563,13 @@
         <v>14</v>
       </c>
       <c r="B157" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
       <c r="D157" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E157" t="s">
         <v>523</v>
@@ -5586,13 +5580,13 @@
         <v>15</v>
       </c>
       <c r="B158" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C158">
         <v>2</v>
       </c>
       <c r="D158" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E158" t="s">
         <v>578</v>
@@ -5603,13 +5597,13 @@
         <v>15</v>
       </c>
       <c r="B159" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E159" t="s">
         <v>579</v>
@@ -5620,13 +5614,13 @@
         <v>15</v>
       </c>
       <c r="B160" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
       <c r="D160" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E160" t="s">
         <v>580</v>
@@ -5637,13 +5631,13 @@
         <v>16</v>
       </c>
       <c r="B161" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
       <c r="D161" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E161" t="s">
         <v>581</v>
@@ -5654,13 +5648,13 @@
         <v>16</v>
       </c>
       <c r="B162" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E162" t="s">
         <v>560</v>
@@ -5671,13 +5665,13 @@
         <v>17</v>
       </c>
       <c r="B163" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E163" t="s">
         <v>582</v>
@@ -5688,13 +5682,13 @@
         <v>17</v>
       </c>
       <c r="B164" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C164">
         <v>3</v>
       </c>
       <c r="D164" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E164" t="s">
         <v>482</v>
@@ -5705,13 +5699,13 @@
         <v>17</v>
       </c>
       <c r="B165" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C165">
         <v>4</v>
       </c>
       <c r="D165" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E165" t="s">
         <v>583</v>
@@ -5722,13 +5716,13 @@
         <v>17</v>
       </c>
       <c r="B166" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C166">
         <v>2</v>
       </c>
       <c r="D166" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E166" t="s">
         <v>584</v>
@@ -5739,13 +5733,13 @@
         <v>17</v>
       </c>
       <c r="B167" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C167">
         <v>2</v>
       </c>
       <c r="D167" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E167" t="s">
         <v>585</v>
@@ -5756,13 +5750,13 @@
         <v>17</v>
       </c>
       <c r="B168" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C168">
         <v>3</v>
       </c>
       <c r="D168" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E168" t="s">
         <v>586</v>
@@ -5773,13 +5767,13 @@
         <v>17</v>
       </c>
       <c r="B169" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E169" t="s">
         <v>587</v>
@@ -5790,13 +5784,13 @@
         <v>17</v>
       </c>
       <c r="B170" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C170">
         <v>2</v>
       </c>
       <c r="D170" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E170" t="s">
         <v>588</v>
@@ -5807,13 +5801,13 @@
         <v>17</v>
       </c>
       <c r="B171" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E171" t="s">
         <v>589</v>
@@ -5824,13 +5818,13 @@
         <v>17</v>
       </c>
       <c r="B172" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C172">
         <v>4</v>
       </c>
       <c r="D172" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E172" t="s">
         <v>478</v>
@@ -5841,13 +5835,13 @@
         <v>17</v>
       </c>
       <c r="B173" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C173">
         <v>3</v>
       </c>
       <c r="D173" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E173" t="s">
         <v>590</v>
@@ -5858,13 +5852,13 @@
         <v>17</v>
       </c>
       <c r="B174" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E174" t="s">
         <v>591</v>
@@ -5875,13 +5869,13 @@
         <v>17</v>
       </c>
       <c r="B175" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
       <c r="D175" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E175" t="s">
         <v>592</v>
@@ -5892,13 +5886,13 @@
         <v>17</v>
       </c>
       <c r="B176" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E176" t="s">
         <v>593</v>
@@ -5909,13 +5903,13 @@
         <v>17</v>
       </c>
       <c r="B177" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E177" t="s">
         <v>594</v>
@@ -5926,13 +5920,13 @@
         <v>17</v>
       </c>
       <c r="B178" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C178">
         <v>2</v>
       </c>
       <c r="D178" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E178" t="s">
         <v>581</v>
@@ -5943,13 +5937,13 @@
         <v>17</v>
       </c>
       <c r="B179" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
       <c r="D179" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E179" t="s">
         <v>595</v>
@@ -5960,13 +5954,13 @@
         <v>17</v>
       </c>
       <c r="B180" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E180" t="s">
         <v>596</v>
@@ -5977,13 +5971,13 @@
         <v>17</v>
       </c>
       <c r="B181" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E181" t="s">
         <v>597</v>
@@ -5994,13 +5988,13 @@
         <v>17</v>
       </c>
       <c r="B182" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E182" t="s">
         <v>598</v>
@@ -6011,13 +6005,13 @@
         <v>17</v>
       </c>
       <c r="B183" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E183" t="s">
         <v>599</v>
@@ -6028,13 +6022,13 @@
         <v>17</v>
       </c>
       <c r="B184" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E184" t="s">
         <v>461</v>
@@ -6045,13 +6039,13 @@
         <v>17</v>
       </c>
       <c r="B185" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
       <c r="D185" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E185" t="s">
         <v>600</v>
@@ -6062,13 +6056,13 @@
         <v>17</v>
       </c>
       <c r="B186" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C186">
         <v>2</v>
       </c>
       <c r="D186" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E186" t="s">
         <v>467</v>
@@ -6079,13 +6073,13 @@
         <v>17</v>
       </c>
       <c r="B187" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E187" t="s">
         <v>601</v>
@@ -6096,13 +6090,13 @@
         <v>17</v>
       </c>
       <c r="B188" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C188">
         <v>3</v>
       </c>
       <c r="D188" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E188" t="s">
         <v>602</v>
@@ -6113,13 +6107,13 @@
         <v>17</v>
       </c>
       <c r="B189" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E189" t="s">
         <v>603</v>
@@ -6130,13 +6124,13 @@
         <v>17</v>
       </c>
       <c r="B190" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E190" t="s">
         <v>604</v>
@@ -6147,13 +6141,13 @@
         <v>17</v>
       </c>
       <c r="B191" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E191" t="s">
         <v>605</v>
@@ -6164,13 +6158,13 @@
         <v>17</v>
       </c>
       <c r="B192" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E192" t="s">
         <v>606</v>
@@ -6181,13 +6175,13 @@
         <v>18</v>
       </c>
       <c r="B193" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E193" t="s">
         <v>607</v>
@@ -6198,13 +6192,13 @@
         <v>18</v>
       </c>
       <c r="B194" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E194" t="s">
         <v>608</v>
@@ -6215,13 +6209,13 @@
         <v>18</v>
       </c>
       <c r="B195" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C195">
         <v>2</v>
       </c>
       <c r="D195" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E195" t="s">
         <v>609</v>
@@ -6232,13 +6226,13 @@
         <v>18</v>
       </c>
       <c r="B196" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E196" t="s">
         <v>610</v>
@@ -6249,13 +6243,13 @@
         <v>18</v>
       </c>
       <c r="B197" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C197">
         <v>2</v>
       </c>
       <c r="D197" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E197" t="s">
         <v>473</v>
@@ -6266,13 +6260,13 @@
         <v>18</v>
       </c>
       <c r="B198" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E198" t="s">
         <v>611</v>
@@ -6283,13 +6277,13 @@
         <v>18</v>
       </c>
       <c r="B199" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E199" t="s">
         <v>612</v>
@@ -6300,13 +6294,13 @@
         <v>18</v>
       </c>
       <c r="B200" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E200" t="s">
         <v>613</v>
@@ -6317,13 +6311,13 @@
         <v>18</v>
       </c>
       <c r="B201" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C201">
         <v>2</v>
       </c>
       <c r="D201" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E201" t="s">
         <v>614</v>
@@ -6334,13 +6328,13 @@
         <v>18</v>
       </c>
       <c r="B202" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E202" t="s">
         <v>615</v>
@@ -6351,13 +6345,13 @@
         <v>18</v>
       </c>
       <c r="B203" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E203" t="s">
         <v>480</v>
@@ -6368,13 +6362,13 @@
         <v>18</v>
       </c>
       <c r="B204" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E204" t="s">
         <v>616</v>
@@ -6385,13 +6379,13 @@
         <v>18</v>
       </c>
       <c r="B205" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C205">
         <v>2</v>
       </c>
       <c r="D205" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E205" t="s">
         <v>617</v>
@@ -6402,13 +6396,13 @@
         <v>18</v>
       </c>
       <c r="B206" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E206" t="s">
         <v>618</v>
@@ -6419,13 +6413,13 @@
         <v>18</v>
       </c>
       <c r="B207" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C207">
         <v>2</v>
       </c>
       <c r="D207" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E207" t="s">
         <v>468</v>
@@ -6436,13 +6430,13 @@
         <v>18</v>
       </c>
       <c r="B208" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C208">
         <v>2</v>
       </c>
       <c r="D208" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E208" t="s">
         <v>469</v>
@@ -6453,13 +6447,13 @@
         <v>18</v>
       </c>
       <c r="B209" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C209">
         <v>2</v>
       </c>
       <c r="D209" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E209" t="s">
         <v>470</v>
@@ -6470,13 +6464,13 @@
         <v>18</v>
       </c>
       <c r="B210" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C210">
         <v>2</v>
       </c>
       <c r="D210" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E210" t="s">
         <v>471</v>
@@ -6487,13 +6481,13 @@
         <v>18</v>
       </c>
       <c r="B211" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C211">
         <v>2</v>
       </c>
       <c r="D211" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E211" t="s">
         <v>472</v>
@@ -6504,13 +6498,13 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C212">
         <v>2</v>
       </c>
       <c r="D212" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E212" t="s">
         <v>474</v>
@@ -6521,13 +6515,13 @@
         <v>18</v>
       </c>
       <c r="B213" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E213" t="s">
         <v>619</v>
@@ -6538,13 +6532,13 @@
         <v>18</v>
       </c>
       <c r="B214" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E214" t="s">
         <v>620</v>
@@ -6555,13 +6549,13 @@
         <v>18</v>
       </c>
       <c r="B215" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C215">
         <v>2</v>
       </c>
       <c r="D215" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E215" t="s">
         <v>621</v>
@@ -6572,13 +6566,13 @@
         <v>18</v>
       </c>
       <c r="B216" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C216">
         <v>2</v>
       </c>
       <c r="D216" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E216" t="s">
         <v>622</v>
@@ -6589,13 +6583,13 @@
         <v>18</v>
       </c>
       <c r="B217" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E217" t="s">
         <v>623</v>
@@ -6606,13 +6600,13 @@
         <v>18</v>
       </c>
       <c r="B218" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E218" t="s">
         <v>624</v>
@@ -6623,13 +6617,13 @@
         <v>18</v>
       </c>
       <c r="B219" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E219" t="s">
         <v>625</v>
@@ -6640,13 +6634,13 @@
         <v>18</v>
       </c>
       <c r="B220" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E220" t="s">
         <v>626</v>
@@ -6657,13 +6651,13 @@
         <v>18</v>
       </c>
       <c r="B221" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E221" t="s">
         <v>627</v>
@@ -6674,13 +6668,13 @@
         <v>18</v>
       </c>
       <c r="B222" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E222" t="s">
         <v>628</v>
@@ -6691,13 +6685,13 @@
         <v>18</v>
       </c>
       <c r="B223" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E223" t="s">
         <v>629</v>
@@ -6708,13 +6702,13 @@
         <v>19</v>
       </c>
       <c r="B224" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C224">
         <v>5</v>
       </c>
       <c r="D224" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E224" t="s">
         <v>467</v>
@@ -6725,13 +6719,13 @@
         <v>19</v>
       </c>
       <c r="B225" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C225">
         <v>3</v>
       </c>
       <c r="D225" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E225" t="s">
         <v>630</v>
@@ -6742,13 +6736,13 @@
         <v>19</v>
       </c>
       <c r="B226" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C226">
         <v>9</v>
       </c>
       <c r="D226" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E226" t="s">
         <v>482</v>
@@ -6759,13 +6753,13 @@
         <v>19</v>
       </c>
       <c r="B227" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C227">
         <v>3</v>
       </c>
       <c r="D227" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E227" t="s">
         <v>631</v>
@@ -6776,13 +6770,13 @@
         <v>19</v>
       </c>
       <c r="B228" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C228">
         <v>3</v>
       </c>
       <c r="D228" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E228" t="s">
         <v>632</v>
@@ -6793,13 +6787,13 @@
         <v>19</v>
       </c>
       <c r="B229" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C229">
         <v>3</v>
       </c>
       <c r="D229" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E229" t="s">
         <v>633</v>
@@ -6810,13 +6804,13 @@
         <v>19</v>
       </c>
       <c r="B230" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C230">
         <v>3</v>
       </c>
       <c r="D230" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E230" t="s">
         <v>634</v>
@@ -6827,13 +6821,13 @@
         <v>19</v>
       </c>
       <c r="B231" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E231" t="s">
         <v>477</v>
@@ -6844,13 +6838,13 @@
         <v>19</v>
       </c>
       <c r="B232" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C232">
         <v>5</v>
       </c>
       <c r="D232" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E232" t="s">
         <v>595</v>
@@ -6861,13 +6855,13 @@
         <v>19</v>
       </c>
       <c r="B233" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C233">
         <v>5</v>
       </c>
       <c r="D233" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E233" t="s">
         <v>596</v>
@@ -6878,13 +6872,13 @@
         <v>19</v>
       </c>
       <c r="B234" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C234">
         <v>5</v>
       </c>
       <c r="D234" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E234" t="s">
         <v>597</v>
@@ -6895,13 +6889,13 @@
         <v>19</v>
       </c>
       <c r="B235" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C235">
         <v>4</v>
       </c>
       <c r="D235" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E235" t="s">
         <v>635</v>
@@ -6912,13 +6906,13 @@
         <v>20</v>
       </c>
       <c r="B236" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C236">
         <v>2</v>
       </c>
       <c r="D236" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E236" t="s">
         <v>636</v>
@@ -6929,13 +6923,13 @@
         <v>20</v>
       </c>
       <c r="B237" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C237">
         <v>5</v>
       </c>
       <c r="D237" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E237" t="s">
         <v>482</v>
@@ -6946,13 +6940,13 @@
         <v>21</v>
       </c>
       <c r="B238" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C238">
         <v>2</v>
       </c>
       <c r="D238" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E238" t="s">
         <v>636</v>
@@ -6963,13 +6957,13 @@
         <v>21</v>
       </c>
       <c r="B239" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C239">
         <v>5</v>
       </c>
       <c r="D239" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E239" t="s">
         <v>637</v>
@@ -6980,13 +6974,13 @@
         <v>21</v>
       </c>
       <c r="B240" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C240">
         <v>2</v>
       </c>
       <c r="D240" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E240" t="s">
         <v>638</v>
@@ -6997,13 +6991,13 @@
         <v>21</v>
       </c>
       <c r="B241" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C241">
         <v>2</v>
       </c>
       <c r="D241" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E241" t="s">
         <v>639</v>
@@ -7014,13 +7008,13 @@
         <v>21</v>
       </c>
       <c r="B242" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E242" t="s">
         <v>640</v>
@@ -7031,13 +7025,13 @@
         <v>21</v>
       </c>
       <c r="B243" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C243">
         <v>1</v>
       </c>
       <c r="D243" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E243" t="s">
         <v>641</v>
@@ -7048,13 +7042,13 @@
         <v>21</v>
       </c>
       <c r="B244" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C244">
         <v>1</v>
       </c>
       <c r="D244" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E244" t="s">
         <v>590</v>
@@ -7065,13 +7059,13 @@
         <v>21</v>
       </c>
       <c r="B245" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
       <c r="D245" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E245" t="s">
         <v>482</v>
@@ -7082,13 +7076,13 @@
         <v>21</v>
       </c>
       <c r="B246" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C246">
         <v>2</v>
       </c>
       <c r="D246" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E246" t="s">
         <v>642</v>
@@ -7099,13 +7093,13 @@
         <v>21</v>
       </c>
       <c r="B247" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C247">
         <v>3</v>
       </c>
       <c r="D247" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E247" t="s">
         <v>643</v>
@@ -7116,13 +7110,13 @@
         <v>21</v>
       </c>
       <c r="B248" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C248">
         <v>2</v>
       </c>
       <c r="D248" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E248" t="s">
         <v>644</v>
@@ -7133,13 +7127,13 @@
         <v>21</v>
       </c>
       <c r="B249" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C249">
         <v>2</v>
       </c>
       <c r="D249" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E249" t="s">
         <v>645</v>
@@ -7150,13 +7144,13 @@
         <v>21</v>
       </c>
       <c r="B250" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
       <c r="D250" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E250" t="s">
         <v>646</v>
@@ -7167,13 +7161,13 @@
         <v>21</v>
       </c>
       <c r="B251" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C251">
         <v>2</v>
       </c>
       <c r="D251" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E251" t="s">
         <v>561</v>
@@ -7184,13 +7178,13 @@
         <v>21</v>
       </c>
       <c r="B252" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C252">
         <v>2</v>
       </c>
       <c r="D252" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E252" t="s">
         <v>595</v>
@@ -7201,13 +7195,13 @@
         <v>21</v>
       </c>
       <c r="B253" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C253">
         <v>2</v>
       </c>
       <c r="D253" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E253" t="s">
         <v>596</v>
@@ -7218,13 +7212,13 @@
         <v>21</v>
       </c>
       <c r="B254" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C254">
         <v>1</v>
       </c>
       <c r="D254" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E254" t="s">
         <v>647</v>
@@ -7235,13 +7229,13 @@
         <v>21</v>
       </c>
       <c r="B255" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C255">
         <v>1</v>
       </c>
       <c r="D255" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E255" t="s">
         <v>648</v>
@@ -7252,13 +7246,13 @@
         <v>21</v>
       </c>
       <c r="B256" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C256">
         <v>6</v>
       </c>
       <c r="D256" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E256" t="s">
         <v>649</v>
@@ -7269,13 +7263,13 @@
         <v>21</v>
       </c>
       <c r="B257" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C257">
         <v>2</v>
       </c>
       <c r="D257" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E257" t="s">
         <v>650</v>
@@ -7286,13 +7280,13 @@
         <v>21</v>
       </c>
       <c r="B258" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C258">
         <v>1</v>
       </c>
       <c r="D258" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E258" t="s">
         <v>651</v>
@@ -7303,13 +7297,13 @@
         <v>21</v>
       </c>
       <c r="B259" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C259">
         <v>1</v>
       </c>
       <c r="D259" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E259" t="s">
         <v>652</v>
@@ -7320,13 +7314,13 @@
         <v>21</v>
       </c>
       <c r="B260" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C260">
         <v>1</v>
       </c>
       <c r="D260" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E260" t="s">
         <v>653</v>
@@ -7337,13 +7331,13 @@
         <v>21</v>
       </c>
       <c r="B261" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C261">
         <v>1</v>
       </c>
       <c r="D261" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E261" t="s">
         <v>654</v>
@@ -7354,13 +7348,13 @@
         <v>21</v>
       </c>
       <c r="B262" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C262">
         <v>1</v>
       </c>
       <c r="D262" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E262" t="s">
         <v>655</v>
@@ -7371,13 +7365,13 @@
         <v>21</v>
       </c>
       <c r="B263" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C263">
         <v>1</v>
       </c>
       <c r="D263" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E263" t="s">
         <v>656</v>
@@ -7388,13 +7382,13 @@
         <v>21</v>
       </c>
       <c r="B264" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C264">
         <v>2</v>
       </c>
       <c r="D264" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E264" t="s">
         <v>657</v>
@@ -7405,13 +7399,13 @@
         <v>21</v>
       </c>
       <c r="B265" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C265">
         <v>2</v>
       </c>
       <c r="D265" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E265" t="s">
         <v>658</v>
@@ -7422,13 +7416,13 @@
         <v>21</v>
       </c>
       <c r="B266" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C266">
         <v>1</v>
       </c>
       <c r="D266" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E266" t="s">
         <v>659</v>
@@ -7439,13 +7433,13 @@
         <v>21</v>
       </c>
       <c r="B267" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C267">
         <v>1</v>
       </c>
       <c r="D267" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E267" t="s">
         <v>660</v>
@@ -7456,13 +7450,13 @@
         <v>21</v>
       </c>
       <c r="B268" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C268">
         <v>1</v>
       </c>
       <c r="D268" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E268" t="s">
         <v>661</v>
@@ -7473,13 +7467,13 @@
         <v>21</v>
       </c>
       <c r="B269" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C269">
         <v>2</v>
       </c>
       <c r="D269" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E269" t="s">
         <v>512</v>
@@ -7490,13 +7484,13 @@
         <v>21</v>
       </c>
       <c r="B270" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C270">
         <v>1</v>
       </c>
       <c r="D270" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E270" t="s">
         <v>662</v>
@@ -7507,13 +7501,13 @@
         <v>21</v>
       </c>
       <c r="B271" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C271">
         <v>1</v>
       </c>
       <c r="D271" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E271" t="s">
         <v>663</v>
@@ -7524,13 +7518,13 @@
         <v>21</v>
       </c>
       <c r="B272" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C272">
         <v>2</v>
       </c>
       <c r="D272" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E272" t="s">
         <v>664</v>
@@ -7541,13 +7535,13 @@
         <v>21</v>
       </c>
       <c r="B273" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C273">
         <v>2</v>
       </c>
       <c r="D273" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E273" t="s">
         <v>665</v>
@@ -7558,13 +7552,13 @@
         <v>21</v>
       </c>
       <c r="B274" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C274">
         <v>1</v>
       </c>
       <c r="D274" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E274" t="s">
         <v>666</v>
@@ -7575,13 +7569,13 @@
         <v>21</v>
       </c>
       <c r="B275" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C275">
         <v>1</v>
       </c>
       <c r="D275" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E275" t="s">
         <v>667</v>
@@ -7592,13 +7586,13 @@
         <v>21</v>
       </c>
       <c r="B276" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C276">
         <v>1</v>
       </c>
       <c r="D276" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E276" t="s">
         <v>668</v>
@@ -7609,13 +7603,13 @@
         <v>21</v>
       </c>
       <c r="B277" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C277">
         <v>2</v>
       </c>
       <c r="D277" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E277" t="s">
         <v>669</v>
@@ -7626,13 +7620,13 @@
         <v>21</v>
       </c>
       <c r="B278" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C278">
         <v>1</v>
       </c>
       <c r="D278" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E278" t="s">
         <v>670</v>
@@ -7643,13 +7637,13 @@
         <v>21</v>
       </c>
       <c r="B279" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C279">
         <v>1</v>
       </c>
       <c r="D279" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E279" t="s">
         <v>671</v>
@@ -7660,13 +7654,13 @@
         <v>21</v>
       </c>
       <c r="B280" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C280">
         <v>2</v>
       </c>
       <c r="D280" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E280" t="s">
         <v>672</v>
@@ -7677,13 +7671,13 @@
         <v>21</v>
       </c>
       <c r="B281" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C281">
         <v>2</v>
       </c>
       <c r="D281" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E281" t="s">
         <v>673</v>
@@ -7694,13 +7688,13 @@
         <v>21</v>
       </c>
       <c r="B282" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C282">
         <v>2</v>
       </c>
       <c r="D282" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E282" t="s">
         <v>674</v>
@@ -7711,13 +7705,13 @@
         <v>21</v>
       </c>
       <c r="B283" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C283">
         <v>4</v>
       </c>
       <c r="D283" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E283" t="s">
         <v>675</v>
@@ -7728,13 +7722,13 @@
         <v>21</v>
       </c>
       <c r="B284" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C284">
         <v>1</v>
       </c>
       <c r="D284" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E284" t="s">
         <v>676</v>
@@ -7745,13 +7739,13 @@
         <v>21</v>
       </c>
       <c r="B285" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C285">
         <v>1</v>
       </c>
       <c r="D285" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E285" t="s">
         <v>677</v>
@@ -7762,13 +7756,13 @@
         <v>21</v>
       </c>
       <c r="B286" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C286">
         <v>1</v>
       </c>
       <c r="D286" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E286" t="s">
         <v>678</v>
@@ -7779,13 +7773,13 @@
         <v>21</v>
       </c>
       <c r="B287" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C287">
         <v>1</v>
       </c>
       <c r="D287" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E287" t="s">
         <v>679</v>
@@ -7796,13 +7790,13 @@
         <v>21</v>
       </c>
       <c r="B288" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C288">
         <v>1</v>
       </c>
       <c r="D288" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E288" t="s">
         <v>680</v>
@@ -7813,13 +7807,13 @@
         <v>22</v>
       </c>
       <c r="B289" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C289">
         <v>1</v>
       </c>
       <c r="D289" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E289" t="s">
         <v>681</v>
@@ -7830,13 +7824,13 @@
         <v>22</v>
       </c>
       <c r="B290" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C290">
         <v>1</v>
       </c>
       <c r="D290" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E290" t="s">
         <v>682</v>
@@ -7847,13 +7841,13 @@
         <v>22</v>
       </c>
       <c r="B291" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C291">
         <v>1</v>
       </c>
       <c r="D291" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E291" t="s">
         <v>683</v>
@@ -7864,13 +7858,13 @@
         <v>22</v>
       </c>
       <c r="B292" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C292">
         <v>1</v>
       </c>
       <c r="D292" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E292" t="s">
         <v>684</v>
@@ -7881,13 +7875,13 @@
         <v>22</v>
       </c>
       <c r="B293" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C293">
         <v>1</v>
       </c>
       <c r="D293" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E293" t="s">
         <v>685</v>
@@ -7898,13 +7892,13 @@
         <v>22</v>
       </c>
       <c r="B294" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C294">
         <v>2</v>
       </c>
       <c r="D294" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E294" t="s">
         <v>686</v>
@@ -7915,13 +7909,13 @@
         <v>22</v>
       </c>
       <c r="B295" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C295">
         <v>1</v>
       </c>
       <c r="D295" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E295" t="s">
         <v>687</v>
@@ -7932,13 +7926,13 @@
         <v>22</v>
       </c>
       <c r="B296" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C296">
         <v>1</v>
       </c>
       <c r="D296" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E296" t="s">
         <v>578</v>
@@ -7949,13 +7943,13 @@
         <v>22</v>
       </c>
       <c r="B297" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C297">
         <v>1</v>
       </c>
       <c r="D297" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E297" t="s">
         <v>688</v>
@@ -7966,13 +7960,13 @@
         <v>22</v>
       </c>
       <c r="B298" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C298">
         <v>1</v>
       </c>
       <c r="D298" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E298" t="s">
         <v>475</v>
@@ -7983,13 +7977,13 @@
         <v>22</v>
       </c>
       <c r="B299" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C299">
         <v>1</v>
       </c>
       <c r="D299" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E299" t="s">
         <v>689</v>
@@ -8000,13 +7994,13 @@
         <v>22</v>
       </c>
       <c r="B300" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C300">
         <v>1</v>
       </c>
       <c r="D300" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E300" t="s">
         <v>508</v>
@@ -8017,13 +8011,13 @@
         <v>22</v>
       </c>
       <c r="B301" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C301">
         <v>1</v>
       </c>
       <c r="D301" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E301" t="s">
         <v>690</v>
@@ -8034,13 +8028,13 @@
         <v>22</v>
       </c>
       <c r="B302" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C302">
         <v>1</v>
       </c>
       <c r="D302" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E302" t="s">
         <v>691</v>
@@ -8051,13 +8045,13 @@
         <v>22</v>
       </c>
       <c r="B303" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C303">
         <v>1</v>
       </c>
       <c r="D303" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E303" t="s">
         <v>692</v>
@@ -8068,13 +8062,13 @@
         <v>22</v>
       </c>
       <c r="B304" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C304">
         <v>1</v>
       </c>
       <c r="D304" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E304" t="s">
         <v>693</v>
@@ -8085,13 +8079,13 @@
         <v>22</v>
       </c>
       <c r="B305" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C305">
         <v>1</v>
       </c>
       <c r="D305" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E305" t="s">
         <v>694</v>
@@ -8102,13 +8096,13 @@
         <v>22</v>
       </c>
       <c r="B306" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C306">
         <v>1</v>
       </c>
       <c r="D306" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E306" t="s">
         <v>695</v>
@@ -8119,13 +8113,13 @@
         <v>22</v>
       </c>
       <c r="B307" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C307">
         <v>1</v>
       </c>
       <c r="D307" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E307" t="s">
         <v>696</v>
@@ -8136,13 +8130,13 @@
         <v>22</v>
       </c>
       <c r="B308" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C308">
         <v>1</v>
       </c>
       <c r="D308" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E308" t="s">
         <v>697</v>
@@ -8153,13 +8147,13 @@
         <v>22</v>
       </c>
       <c r="B309" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C309">
         <v>3</v>
       </c>
       <c r="D309" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E309" t="s">
         <v>649</v>
@@ -8170,13 +8164,13 @@
         <v>22</v>
       </c>
       <c r="B310" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C310">
         <v>1</v>
       </c>
       <c r="D310" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E310" t="s">
         <v>698</v>
@@ -8187,13 +8181,13 @@
         <v>22</v>
       </c>
       <c r="B311" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C311">
         <v>1</v>
       </c>
       <c r="D311" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E311" t="s">
         <v>699</v>
@@ -8204,13 +8198,13 @@
         <v>22</v>
       </c>
       <c r="B312" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C312">
         <v>1</v>
       </c>
       <c r="D312" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E312" t="s">
         <v>700</v>
@@ -8221,13 +8215,13 @@
         <v>22</v>
       </c>
       <c r="B313" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C313">
         <v>1</v>
       </c>
       <c r="D313" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E313" t="s">
         <v>701</v>
@@ -8238,13 +8232,13 @@
         <v>23</v>
       </c>
       <c r="B314" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C314">
         <v>1</v>
       </c>
       <c r="D314" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E314" t="s">
         <v>702</v>
@@ -8255,13 +8249,13 @@
         <v>23</v>
       </c>
       <c r="B315" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C315">
         <v>1</v>
       </c>
       <c r="D315" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E315" t="s">
         <v>703</v>
@@ -8272,13 +8266,13 @@
         <v>23</v>
       </c>
       <c r="B316" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C316">
         <v>1</v>
       </c>
       <c r="D316" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E316" t="s">
         <v>704</v>
@@ -8289,13 +8283,13 @@
         <v>23</v>
       </c>
       <c r="B317" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C317">
         <v>1</v>
       </c>
       <c r="D317" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E317" t="s">
         <v>705</v>
@@ -8306,13 +8300,13 @@
         <v>23</v>
       </c>
       <c r="B318" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C318">
         <v>2</v>
       </c>
       <c r="D318" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E318" t="s">
         <v>637</v>
@@ -8323,13 +8317,13 @@
         <v>23</v>
       </c>
       <c r="B319" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C319">
         <v>1</v>
       </c>
       <c r="D319" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E319" t="s">
         <v>706</v>
@@ -8340,13 +8334,13 @@
         <v>23</v>
       </c>
       <c r="B320" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C320">
         <v>1</v>
       </c>
       <c r="D320" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E320" t="s">
         <v>707</v>
@@ -8357,13 +8351,13 @@
         <v>23</v>
       </c>
       <c r="B321" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C321">
         <v>1</v>
       </c>
       <c r="D321" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E321" t="s">
         <v>708</v>
@@ -8374,13 +8368,13 @@
         <v>23</v>
       </c>
       <c r="B322" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C322">
         <v>1</v>
       </c>
       <c r="D322" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E322" t="s">
         <v>709</v>
@@ -8391,13 +8385,13 @@
         <v>23</v>
       </c>
       <c r="B323" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C323">
         <v>1</v>
       </c>
       <c r="D323" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E323" t="s">
         <v>710</v>
@@ -8408,13 +8402,13 @@
         <v>23</v>
       </c>
       <c r="B324" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C324">
         <v>1</v>
       </c>
       <c r="D324" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E324" t="s">
         <v>711</v>
@@ -8425,13 +8419,13 @@
         <v>23</v>
       </c>
       <c r="B325" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C325">
         <v>2</v>
       </c>
       <c r="D325" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E325" t="s">
         <v>712</v>
@@ -8442,13 +8436,13 @@
         <v>23</v>
       </c>
       <c r="B326" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C326">
         <v>2</v>
       </c>
       <c r="D326" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E326" t="s">
         <v>466</v>
@@ -8459,13 +8453,13 @@
         <v>23</v>
       </c>
       <c r="B327" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C327">
         <v>1</v>
       </c>
       <c r="D327" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E327" t="s">
         <v>713</v>
@@ -8476,13 +8470,13 @@
         <v>23</v>
       </c>
       <c r="B328" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C328">
         <v>1</v>
       </c>
       <c r="D328" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E328" t="s">
         <v>714</v>
@@ -8493,13 +8487,13 @@
         <v>23</v>
       </c>
       <c r="B329" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C329">
         <v>1</v>
       </c>
       <c r="D329" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E329" t="s">
         <v>715</v>
@@ -8510,13 +8504,13 @@
         <v>23</v>
       </c>
       <c r="B330" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C330">
         <v>2</v>
       </c>
       <c r="D330" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E330" t="s">
         <v>716</v>
@@ -8527,13 +8521,13 @@
         <v>23</v>
       </c>
       <c r="B331" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C331">
         <v>2</v>
       </c>
       <c r="D331" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E331" t="s">
         <v>516</v>
@@ -8544,13 +8538,13 @@
         <v>23</v>
       </c>
       <c r="B332" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C332">
         <v>1</v>
       </c>
       <c r="D332" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E332" t="s">
         <v>717</v>
@@ -8561,13 +8555,13 @@
         <v>23</v>
       </c>
       <c r="B333" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C333">
         <v>1</v>
       </c>
       <c r="D333" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E333" t="s">
         <v>718</v>
@@ -8578,13 +8572,13 @@
         <v>23</v>
       </c>
       <c r="B334" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C334">
         <v>3</v>
       </c>
       <c r="D334" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E334" t="s">
         <v>719</v>
@@ -8595,13 +8589,13 @@
         <v>23</v>
       </c>
       <c r="B335" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C335">
         <v>1</v>
       </c>
       <c r="D335" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E335" t="s">
         <v>720</v>
@@ -8612,13 +8606,13 @@
         <v>23</v>
       </c>
       <c r="B336" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C336">
         <v>1</v>
       </c>
       <c r="D336" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E336" t="s">
         <v>721</v>
@@ -8629,13 +8623,13 @@
         <v>23</v>
       </c>
       <c r="B337" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C337">
         <v>2</v>
       </c>
       <c r="D337" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E337" t="s">
         <v>722</v>
@@ -8646,13 +8640,13 @@
         <v>23</v>
       </c>
       <c r="B338" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C338">
         <v>2</v>
       </c>
       <c r="D338" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E338" t="s">
         <v>723</v>
@@ -8663,13 +8657,13 @@
         <v>23</v>
       </c>
       <c r="B339" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C339">
         <v>2</v>
       </c>
       <c r="D339" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E339" t="s">
         <v>602</v>
@@ -8680,13 +8674,13 @@
         <v>23</v>
       </c>
       <c r="B340" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C340">
         <v>1</v>
       </c>
       <c r="D340" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E340" t="s">
         <v>724</v>
@@ -8697,13 +8691,13 @@
         <v>23</v>
       </c>
       <c r="B341" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C341">
         <v>1</v>
       </c>
       <c r="D341" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E341" t="s">
         <v>725</v>
@@ -8714,13 +8708,13 @@
         <v>23</v>
       </c>
       <c r="B342" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C342">
         <v>2</v>
       </c>
       <c r="D342" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E342" t="s">
         <v>476</v>
@@ -8731,13 +8725,13 @@
         <v>23</v>
       </c>
       <c r="B343" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C343">
         <v>2</v>
       </c>
       <c r="D343" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E343" t="s">
         <v>468</v>
@@ -8748,13 +8742,13 @@
         <v>23</v>
       </c>
       <c r="B344" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C344">
         <v>2</v>
       </c>
       <c r="D344" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E344" t="s">
         <v>469</v>
@@ -8765,13 +8759,13 @@
         <v>23</v>
       </c>
       <c r="B345" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C345">
         <v>2</v>
       </c>
       <c r="D345" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E345" t="s">
         <v>470</v>
@@ -8782,13 +8776,13 @@
         <v>23</v>
       </c>
       <c r="B346" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C346">
         <v>2</v>
       </c>
       <c r="D346" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E346" t="s">
         <v>471</v>
@@ -8799,13 +8793,13 @@
         <v>23</v>
       </c>
       <c r="B347" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C347">
         <v>2</v>
       </c>
       <c r="D347" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E347" t="s">
         <v>472</v>
@@ -8816,13 +8810,13 @@
         <v>23</v>
       </c>
       <c r="B348" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C348">
         <v>2</v>
       </c>
       <c r="D348" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E348" t="s">
         <v>473</v>
@@ -8833,13 +8827,13 @@
         <v>23</v>
       </c>
       <c r="B349" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C349">
         <v>2</v>
       </c>
       <c r="D349" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E349" t="s">
         <v>474</v>
@@ -8850,13 +8844,13 @@
         <v>23</v>
       </c>
       <c r="B350" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C350">
         <v>2</v>
       </c>
       <c r="D350" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E350" t="s">
         <v>726</v>
@@ -8867,13 +8861,13 @@
         <v>23</v>
       </c>
       <c r="B351" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C351">
         <v>1</v>
       </c>
       <c r="D351" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E351" t="s">
         <v>727</v>
@@ -8884,13 +8878,13 @@
         <v>23</v>
       </c>
       <c r="B352" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C352">
         <v>1</v>
       </c>
       <c r="D352" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E352" t="s">
         <v>728</v>
@@ -8901,13 +8895,13 @@
         <v>23</v>
       </c>
       <c r="B353" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C353">
         <v>1</v>
       </c>
       <c r="D353" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E353" t="s">
         <v>729</v>
@@ -8918,13 +8912,13 @@
         <v>23</v>
       </c>
       <c r="B354" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C354">
         <v>1</v>
       </c>
       <c r="D354" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E354" t="s">
         <v>730</v>
@@ -8935,13 +8929,13 @@
         <v>23</v>
       </c>
       <c r="B355" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C355">
         <v>1</v>
       </c>
       <c r="D355" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E355" t="s">
         <v>731</v>
@@ -8952,13 +8946,13 @@
         <v>23</v>
       </c>
       <c r="B356" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C356">
         <v>1</v>
       </c>
       <c r="D356" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E356" t="s">
         <v>732</v>
@@ -8969,13 +8963,13 @@
         <v>23</v>
       </c>
       <c r="B357" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C357">
         <v>1</v>
       </c>
       <c r="D357" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E357" t="s">
         <v>733</v>
@@ -8986,13 +8980,13 @@
         <v>23</v>
       </c>
       <c r="B358" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C358">
         <v>1</v>
       </c>
       <c r="D358" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E358" t="s">
         <v>734</v>
@@ -9003,13 +8997,13 @@
         <v>23</v>
       </c>
       <c r="B359" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C359">
         <v>1</v>
       </c>
       <c r="D359" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E359" t="s">
         <v>573</v>
@@ -9020,13 +9014,13 @@
         <v>24</v>
       </c>
       <c r="B360" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C360">
         <v>3</v>
       </c>
       <c r="D360" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E360" t="s">
         <v>735</v>
@@ -9037,13 +9031,13 @@
         <v>24</v>
       </c>
       <c r="B361" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C361">
         <v>1</v>
       </c>
       <c r="D361" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E361" t="s">
         <v>736</v>
@@ -9054,13 +9048,13 @@
         <v>24</v>
       </c>
       <c r="B362" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C362">
         <v>2</v>
       </c>
       <c r="D362" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E362" t="s">
         <v>737</v>
@@ -9071,13 +9065,13 @@
         <v>24</v>
       </c>
       <c r="B363" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C363">
         <v>2</v>
       </c>
       <c r="D363" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E363" t="s">
         <v>476</v>
@@ -9088,13 +9082,13 @@
         <v>24</v>
       </c>
       <c r="B364" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C364">
         <v>1</v>
       </c>
       <c r="D364" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E364" t="s">
         <v>738</v>
@@ -9105,13 +9099,13 @@
         <v>24</v>
       </c>
       <c r="B365" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C365">
         <v>2</v>
       </c>
       <c r="D365" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E365" t="s">
         <v>739</v>
@@ -9122,13 +9116,13 @@
         <v>24</v>
       </c>
       <c r="B366" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C366">
         <v>2</v>
       </c>
       <c r="D366" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E366" t="s">
         <v>740</v>
@@ -9139,13 +9133,13 @@
         <v>24</v>
       </c>
       <c r="B367" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C367">
         <v>1</v>
       </c>
       <c r="D367" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E367" t="s">
         <v>741</v>
@@ -9156,13 +9150,13 @@
         <v>24</v>
       </c>
       <c r="B368" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C368">
         <v>1</v>
       </c>
       <c r="D368" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E368" t="s">
         <v>742</v>
@@ -9173,13 +9167,13 @@
         <v>24</v>
       </c>
       <c r="B369" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C369">
         <v>2</v>
       </c>
       <c r="D369" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E369" t="s">
         <v>743</v>
@@ -9190,13 +9184,13 @@
         <v>24</v>
       </c>
       <c r="B370" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C370">
         <v>1</v>
       </c>
       <c r="D370" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E370" t="s">
         <v>744</v>
@@ -9207,13 +9201,13 @@
         <v>24</v>
       </c>
       <c r="B371" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C371">
         <v>1</v>
       </c>
       <c r="D371" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E371" t="s">
         <v>745</v>
@@ -9224,13 +9218,13 @@
         <v>24</v>
       </c>
       <c r="B372" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C372">
         <v>1</v>
       </c>
       <c r="D372" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E372" t="s">
         <v>746</v>
@@ -9241,13 +9235,13 @@
         <v>24</v>
       </c>
       <c r="B373" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C373">
         <v>1</v>
       </c>
       <c r="D373" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E373" t="s">
         <v>747</v>
@@ -9258,13 +9252,13 @@
         <v>24</v>
       </c>
       <c r="B374" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C374">
         <v>3</v>
       </c>
       <c r="D374" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E374" t="s">
         <v>468</v>
@@ -9275,13 +9269,13 @@
         <v>24</v>
       </c>
       <c r="B375" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C375">
         <v>3</v>
       </c>
       <c r="D375" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E375" t="s">
         <v>469</v>
@@ -9292,13 +9286,13 @@
         <v>24</v>
       </c>
       <c r="B376" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C376">
         <v>3</v>
       </c>
       <c r="D376" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E376" t="s">
         <v>470</v>
@@ -9309,13 +9303,13 @@
         <v>24</v>
       </c>
       <c r="B377" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C377">
         <v>3</v>
       </c>
       <c r="D377" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E377" t="s">
         <v>471</v>
@@ -9326,13 +9320,13 @@
         <v>24</v>
       </c>
       <c r="B378" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C378">
         <v>3</v>
       </c>
       <c r="D378" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E378" t="s">
         <v>472</v>
@@ -9343,13 +9337,13 @@
         <v>24</v>
       </c>
       <c r="B379" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C379">
         <v>3</v>
       </c>
       <c r="D379" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E379" t="s">
         <v>473</v>
@@ -9360,13 +9354,13 @@
         <v>24</v>
       </c>
       <c r="B380" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C380">
         <v>3</v>
       </c>
       <c r="D380" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E380" t="s">
         <v>474</v>
@@ -9377,13 +9371,13 @@
         <v>24</v>
       </c>
       <c r="B381" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C381">
         <v>1</v>
       </c>
       <c r="D381" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E381" t="s">
         <v>480</v>
@@ -9394,13 +9388,13 @@
         <v>24</v>
       </c>
       <c r="B382" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C382">
         <v>1</v>
       </c>
       <c r="D382" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E382" t="s">
         <v>650</v>
@@ -9411,13 +9405,13 @@
         <v>24</v>
       </c>
       <c r="B383" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C383">
         <v>1</v>
       </c>
       <c r="D383" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E383" t="s">
         <v>748</v>
@@ -9428,13 +9422,13 @@
         <v>24</v>
       </c>
       <c r="B384" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C384">
         <v>1</v>
       </c>
       <c r="D384" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E384" t="s">
         <v>749</v>
@@ -9445,13 +9439,13 @@
         <v>24</v>
       </c>
       <c r="B385" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C385">
         <v>1</v>
       </c>
       <c r="D385" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E385" t="s">
         <v>750</v>
@@ -9462,13 +9456,13 @@
         <v>24</v>
       </c>
       <c r="B386" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C386">
         <v>1</v>
       </c>
       <c r="D386" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E386" t="s">
         <v>751</v>
@@ -9479,13 +9473,13 @@
         <v>24</v>
       </c>
       <c r="B387" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C387">
         <v>1</v>
       </c>
       <c r="D387" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E387" t="s">
         <v>752</v>
@@ -9496,13 +9490,13 @@
         <v>24</v>
       </c>
       <c r="B388" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C388">
         <v>1</v>
       </c>
       <c r="D388" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E388" t="s">
         <v>753</v>
@@ -9513,13 +9507,13 @@
         <v>24</v>
       </c>
       <c r="B389" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C389">
         <v>3</v>
       </c>
       <c r="D389" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E389" t="s">
         <v>754</v>
@@ -9530,13 +9524,13 @@
         <v>24</v>
       </c>
       <c r="B390" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C390">
         <v>2</v>
       </c>
       <c r="D390" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E390" t="s">
         <v>755</v>
@@ -9547,13 +9541,13 @@
         <v>24</v>
       </c>
       <c r="B391" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C391">
         <v>1</v>
       </c>
       <c r="D391" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E391" t="s">
         <v>756</v>
@@ -9564,13 +9558,13 @@
         <v>24</v>
       </c>
       <c r="B392" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C392">
         <v>1</v>
       </c>
       <c r="D392" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E392" t="s">
         <v>757</v>
@@ -9581,13 +9575,13 @@
         <v>24</v>
       </c>
       <c r="B393" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C393">
         <v>1</v>
       </c>
       <c r="D393" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E393" t="s">
         <v>758</v>
@@ -9598,13 +9592,13 @@
         <v>24</v>
       </c>
       <c r="B394" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C394">
         <v>1</v>
       </c>
       <c r="D394" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E394" t="s">
         <v>759</v>
@@ -9615,13 +9609,13 @@
         <v>25</v>
       </c>
       <c r="B395" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C395">
         <v>2</v>
       </c>
       <c r="D395" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E395" t="s">
         <v>527</v>
@@ -9632,13 +9626,13 @@
         <v>25</v>
       </c>
       <c r="B396" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C396">
         <v>4</v>
       </c>
       <c r="D396" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E396" t="s">
         <v>760</v>
@@ -9649,13 +9643,13 @@
         <v>25</v>
       </c>
       <c r="B397" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C397">
         <v>4</v>
       </c>
       <c r="D397" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E397" t="s">
         <v>761</v>
@@ -9666,13 +9660,13 @@
         <v>25</v>
       </c>
       <c r="B398" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C398">
         <v>6</v>
       </c>
       <c r="D398" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E398" t="s">
         <v>619</v>
@@ -9683,13 +9677,13 @@
         <v>25</v>
       </c>
       <c r="B399" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C399">
         <v>5</v>
       </c>
       <c r="D399" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E399" t="s">
         <v>485</v>
@@ -9700,13 +9694,13 @@
         <v>25</v>
       </c>
       <c r="B400" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C400">
         <v>4</v>
       </c>
       <c r="D400" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E400" t="s">
         <v>762</v>
@@ -9717,13 +9711,13 @@
         <v>25</v>
       </c>
       <c r="B401" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C401">
         <v>5</v>
       </c>
       <c r="D401" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E401" t="s">
         <v>555</v>
@@ -9734,13 +9728,13 @@
         <v>25</v>
       </c>
       <c r="B402" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C402">
         <v>5</v>
       </c>
       <c r="D402" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E402" t="s">
         <v>556</v>
@@ -9751,13 +9745,13 @@
         <v>25</v>
       </c>
       <c r="B403" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C403">
         <v>5</v>
       </c>
       <c r="D403" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E403" t="s">
         <v>557</v>
@@ -9768,13 +9762,13 @@
         <v>25</v>
       </c>
       <c r="B404" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C404">
         <v>6</v>
       </c>
       <c r="D404" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E404" t="s">
         <v>476</v>
@@ -9785,13 +9779,13 @@
         <v>26</v>
       </c>
       <c r="B405" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C405">
         <v>7</v>
       </c>
       <c r="D405" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E405" t="s">
         <v>694</v>
@@ -9802,13 +9796,13 @@
         <v>26</v>
       </c>
       <c r="B406" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C406">
         <v>3</v>
       </c>
       <c r="D406" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E406" t="s">
         <v>763</v>
@@ -9819,13 +9813,13 @@
         <v>26</v>
       </c>
       <c r="B407" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C407">
         <v>4</v>
       </c>
       <c r="D407" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E407" t="s">
         <v>764</v>
@@ -9836,13 +9830,13 @@
         <v>26</v>
       </c>
       <c r="B408" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C408">
         <v>4</v>
       </c>
       <c r="D408" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E408" t="s">
         <v>765</v>
@@ -9853,13 +9847,13 @@
         <v>26</v>
       </c>
       <c r="B409" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C409">
         <v>1</v>
       </c>
       <c r="D409" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E409" t="s">
         <v>766</v>
@@ -9870,13 +9864,13 @@
         <v>26</v>
       </c>
       <c r="B410" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C410">
         <v>16</v>
       </c>
       <c r="D410" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E410" t="s">
         <v>519</v>
@@ -9887,13 +9881,13 @@
         <v>26</v>
       </c>
       <c r="B411" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C411">
         <v>2</v>
       </c>
       <c r="D411" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E411" t="s">
         <v>767</v>
@@ -9904,13 +9898,13 @@
         <v>26</v>
       </c>
       <c r="B412" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C412">
         <v>9</v>
       </c>
       <c r="D412" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E412" t="s">
         <v>768</v>
@@ -9921,13 +9915,13 @@
         <v>26</v>
       </c>
       <c r="B413" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C413">
         <v>4</v>
       </c>
       <c r="D413" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E413" t="s">
         <v>677</v>
@@ -9938,13 +9932,13 @@
         <v>27</v>
       </c>
       <c r="B414" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C414">
         <v>7</v>
       </c>
       <c r="D414" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E414" t="s">
         <v>694</v>
@@ -9955,13 +9949,13 @@
         <v>27</v>
       </c>
       <c r="B415" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C415">
         <v>3</v>
       </c>
       <c r="D415" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E415" t="s">
         <v>763</v>
@@ -9972,13 +9966,13 @@
         <v>27</v>
       </c>
       <c r="B416" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C416">
         <v>4</v>
       </c>
       <c r="D416" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E416" t="s">
         <v>764</v>
@@ -9989,13 +9983,13 @@
         <v>27</v>
       </c>
       <c r="B417" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C417">
         <v>4</v>
       </c>
       <c r="D417" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E417" t="s">
         <v>765</v>
@@ -10006,13 +10000,13 @@
         <v>27</v>
       </c>
       <c r="B418" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C418">
         <v>1</v>
       </c>
       <c r="D418" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E418" t="s">
         <v>766</v>
@@ -10023,13 +10017,13 @@
         <v>27</v>
       </c>
       <c r="B419" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C419">
         <v>2</v>
       </c>
       <c r="D419" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E419" t="s">
         <v>767</v>
@@ -10040,13 +10034,13 @@
         <v>27</v>
       </c>
       <c r="B420" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C420">
         <v>16</v>
       </c>
       <c r="D420" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E420" t="s">
         <v>519</v>
@@ -10057,13 +10051,13 @@
         <v>27</v>
       </c>
       <c r="B421" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C421">
         <v>4</v>
       </c>
       <c r="D421" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E421" t="s">
         <v>677</v>
@@ -10074,13 +10068,13 @@
         <v>27</v>
       </c>
       <c r="B422" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C422">
         <v>9</v>
       </c>
       <c r="D422" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E422" t="s">
         <v>768</v>
@@ -10091,13 +10085,13 @@
         <v>28</v>
       </c>
       <c r="B423" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C423">
         <v>2</v>
       </c>
       <c r="D423" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E423" t="s">
         <v>769</v>
@@ -10108,13 +10102,13 @@
         <v>28</v>
       </c>
       <c r="B424" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C424">
         <v>4</v>
       </c>
       <c r="D424" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E424" t="s">
         <v>650</v>
@@ -10125,13 +10119,13 @@
         <v>28</v>
       </c>
       <c r="B425" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C425">
         <v>1</v>
       </c>
       <c r="D425" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E425" t="s">
         <v>770</v>
@@ -10142,13 +10136,13 @@
         <v>28</v>
       </c>
       <c r="B426" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C426">
         <v>2</v>
       </c>
       <c r="D426" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E426" t="s">
         <v>771</v>
@@ -10159,13 +10153,13 @@
         <v>28</v>
       </c>
       <c r="B427" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C427">
         <v>6</v>
       </c>
       <c r="D427" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E427" t="s">
         <v>772</v>
@@ -10176,13 +10170,13 @@
         <v>28</v>
       </c>
       <c r="B428" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C428">
         <v>1</v>
       </c>
       <c r="D428" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E428" t="s">
         <v>773</v>
@@ -10193,13 +10187,13 @@
         <v>28</v>
       </c>
       <c r="B429" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C429">
         <v>1</v>
       </c>
       <c r="D429" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E429" t="s">
         <v>774</v>
@@ -10210,13 +10204,13 @@
         <v>28</v>
       </c>
       <c r="B430" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C430">
         <v>3</v>
       </c>
       <c r="D430" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E430" t="s">
         <v>476</v>
@@ -10227,13 +10221,13 @@
         <v>28</v>
       </c>
       <c r="B431" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C431">
         <v>1</v>
       </c>
       <c r="D431" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E431" t="s">
         <v>775</v>
@@ -10244,13 +10238,13 @@
         <v>28</v>
       </c>
       <c r="B432" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C432">
         <v>1</v>
       </c>
       <c r="D432" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E432" t="s">
         <v>776</v>
@@ -10261,13 +10255,13 @@
         <v>28</v>
       </c>
       <c r="B433" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C433">
         <v>1</v>
       </c>
       <c r="D433" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E433" t="s">
         <v>777</v>
@@ -10278,13 +10272,13 @@
         <v>28</v>
       </c>
       <c r="B434" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C434">
         <v>3</v>
       </c>
       <c r="D434" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E434" t="s">
         <v>778</v>
@@ -10295,30 +10289,27 @@
         <v>28</v>
       </c>
       <c r="B435" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="C435">
-        <v>2</v>
-      </c>
-      <c r="D435" t="s">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="E435" t="s">
-        <v>570</v>
+        <v>769</v>
       </c>
     </row>
     <row r="436" spans="1:5">
       <c r="A436" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B436" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C436">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D436" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E436" t="s">
         <v>779</v>
@@ -10326,16 +10317,16 @@
     </row>
     <row r="437" spans="1:5">
       <c r="A437" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B437" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C437">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D437" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E437" t="s">
         <v>780</v>
@@ -10343,648 +10334,648 @@
     </row>
     <row r="438" spans="1:5">
       <c r="A438" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B438" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C438">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D438" t="s">
-        <v>259</v>
+        <v>399</v>
       </c>
       <c r="E438" t="s">
-        <v>643</v>
+        <v>781</v>
       </c>
     </row>
     <row r="439" spans="1:5">
       <c r="A439" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B439" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C439">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D439" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E439" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="440" spans="1:5">
       <c r="A440" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B440" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C440">
         <v>1</v>
       </c>
       <c r="D440" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="E440" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="441" spans="1:5">
       <c r="A441" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B441" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C441">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D441" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="E441" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="442" spans="1:5">
       <c r="A442" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B442" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C442">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D442" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E442" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="443" spans="1:5">
       <c r="A443" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B443" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C443">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D443" t="s">
-        <v>401</v>
+        <v>93</v>
       </c>
       <c r="E443" t="s">
-        <v>785</v>
+        <v>475</v>
       </c>
     </row>
     <row r="444" spans="1:5">
       <c r="A444" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B444" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C444">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D444" t="s">
-        <v>265</v>
+        <v>404</v>
       </c>
       <c r="E444" t="s">
-        <v>649</v>
+        <v>786</v>
       </c>
     </row>
     <row r="445" spans="1:5">
       <c r="A445" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B445" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C445">
         <v>1</v>
       </c>
       <c r="D445" t="s">
-        <v>275</v>
+        <v>184</v>
       </c>
       <c r="E445" t="s">
-        <v>659</v>
+        <v>566</v>
       </c>
     </row>
     <row r="446" spans="1:5">
       <c r="A446" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B446" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C446">
         <v>1</v>
       </c>
       <c r="D446" t="s">
-        <v>276</v>
+        <v>185</v>
       </c>
       <c r="E446" t="s">
-        <v>660</v>
+        <v>567</v>
       </c>
     </row>
     <row r="447" spans="1:5">
       <c r="A447" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B447" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C447">
         <v>2</v>
       </c>
       <c r="D447" t="s">
-        <v>250</v>
+        <v>154</v>
       </c>
       <c r="E447" t="s">
-        <v>634</v>
+        <v>536</v>
       </c>
     </row>
     <row r="448" spans="1:5">
       <c r="A448" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B448" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C448">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D448" t="s">
-        <v>158</v>
+        <v>405</v>
       </c>
       <c r="E448" t="s">
-        <v>542</v>
+        <v>787</v>
       </c>
     </row>
     <row r="449" spans="1:5">
       <c r="A449" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B449" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C449">
         <v>1</v>
       </c>
       <c r="D449" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="E449" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="450" spans="1:5">
       <c r="A450" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B450" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="C450">
         <v>1</v>
       </c>
       <c r="D450" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="E450" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="451" spans="1:5">
       <c r="A451" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B451" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="C451">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D451" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="E451" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="452" spans="1:5">
       <c r="A452" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B452" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C452">
         <v>1</v>
       </c>
       <c r="D452" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E452" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="453" spans="1:5">
       <c r="A453" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B453" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C453">
         <v>1</v>
       </c>
       <c r="D453" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="E453" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="454" spans="1:5">
       <c r="A454" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B454" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C454">
         <v>1</v>
       </c>
       <c r="D454" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="E454" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
     </row>
     <row r="455" spans="1:5">
       <c r="A455" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B455" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C455">
         <v>1</v>
       </c>
       <c r="D455" t="s">
-        <v>408</v>
+        <v>149</v>
       </c>
       <c r="E455" t="s">
-        <v>792</v>
+        <v>531</v>
       </c>
     </row>
     <row r="456" spans="1:5">
       <c r="A456" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B456" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C456">
         <v>1</v>
       </c>
       <c r="D456" t="s">
-        <v>91</v>
+        <v>412</v>
       </c>
       <c r="E456" t="s">
-        <v>475</v>
+        <v>794</v>
       </c>
     </row>
     <row r="457" spans="1:5">
       <c r="A457" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B457" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C457">
         <v>1</v>
       </c>
       <c r="D457" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="E457" t="s">
-        <v>793</v>
+        <v>776</v>
       </c>
     </row>
     <row r="458" spans="1:5">
       <c r="A458" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B458" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C458">
         <v>1</v>
       </c>
       <c r="D458" t="s">
-        <v>182</v>
+        <v>413</v>
       </c>
       <c r="E458" t="s">
-        <v>566</v>
+        <v>795</v>
       </c>
     </row>
     <row r="459" spans="1:5">
       <c r="A459" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B459" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C459">
         <v>1</v>
       </c>
       <c r="D459" t="s">
-        <v>183</v>
+        <v>414</v>
       </c>
       <c r="E459" t="s">
-        <v>567</v>
+        <v>796</v>
       </c>
     </row>
     <row r="460" spans="1:5">
       <c r="A460" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B460" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C460">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D460" t="s">
-        <v>152</v>
+        <v>415</v>
       </c>
       <c r="E460" t="s">
-        <v>536</v>
+        <v>797</v>
       </c>
     </row>
     <row r="461" spans="1:5">
       <c r="A461" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B461" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C461">
         <v>1</v>
       </c>
       <c r="D461" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="E461" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
     </row>
     <row r="462" spans="1:5">
       <c r="A462" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B462" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C462">
         <v>1</v>
       </c>
       <c r="D462" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="E462" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
     </row>
     <row r="463" spans="1:5">
       <c r="A463" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B463" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C463">
         <v>1</v>
       </c>
       <c r="D463" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="E463" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
     </row>
     <row r="464" spans="1:5">
       <c r="A464" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B464" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C464">
         <v>1</v>
       </c>
       <c r="D464" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="E464" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
     </row>
     <row r="465" spans="1:5">
       <c r="A465" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B465" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C465">
         <v>1</v>
       </c>
       <c r="D465" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="E465" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
     </row>
     <row r="466" spans="1:5">
       <c r="A466" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B466" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="C466">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D466" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="E466" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
     </row>
     <row r="467" spans="1:5">
       <c r="A467" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B467" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C467">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D467" t="s">
-        <v>416</v>
+        <v>390</v>
       </c>
       <c r="E467" t="s">
-        <v>800</v>
+        <v>772</v>
       </c>
     </row>
     <row r="468" spans="1:5">
       <c r="A468" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B468" t="s">
         <v>49</v>
       </c>
       <c r="C468">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D468" t="s">
-        <v>147</v>
+        <v>422</v>
       </c>
       <c r="E468" t="s">
-        <v>531</v>
+        <v>804</v>
       </c>
     </row>
     <row r="469" spans="1:5">
       <c r="A469" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B469" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="C469">
         <v>1</v>
       </c>
       <c r="D469" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="E469" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
     </row>
     <row r="470" spans="1:5">
       <c r="A470" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B470" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C470">
         <v>1</v>
       </c>
       <c r="D470" t="s">
-        <v>392</v>
+        <v>424</v>
       </c>
       <c r="E470" t="s">
-        <v>776</v>
+        <v>806</v>
       </c>
     </row>
     <row r="471" spans="1:5">
       <c r="A471" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B471" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C471">
         <v>1</v>
       </c>
       <c r="D471" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="E471" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
     </row>
     <row r="472" spans="1:5">
       <c r="A472" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B472" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C472">
         <v>1</v>
       </c>
       <c r="D472" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="E472" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
     </row>
     <row r="473" spans="1:5">
       <c r="A473" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B473" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C473">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D473" t="s">
-        <v>420</v>
+        <v>244</v>
       </c>
       <c r="E473" t="s">
-        <v>804</v>
+        <v>626</v>
       </c>
     </row>
     <row r="474" spans="1:5">
       <c r="A474" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B474" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C474">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D474" t="s">
-        <v>421</v>
+        <v>245</v>
       </c>
       <c r="E474" t="s">
-        <v>805</v>
+        <v>627</v>
       </c>
     </row>
     <row r="475" spans="1:5">
       <c r="A475" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B475" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C475">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D475" t="s">
-        <v>422</v>
+        <v>246</v>
       </c>
       <c r="E475" t="s">
-        <v>806</v>
+        <v>628</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -10992,16 +10983,16 @@
         <v>32</v>
       </c>
       <c r="B476" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C476">
         <v>1</v>
       </c>
       <c r="D476" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="E476" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row r="477" spans="1:5">
@@ -11009,16 +11000,16 @@
         <v>32</v>
       </c>
       <c r="B477" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C477">
         <v>1</v>
       </c>
       <c r="D477" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="E477" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -11026,16 +11017,16 @@
         <v>32</v>
       </c>
       <c r="B478" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C478">
         <v>1</v>
       </c>
       <c r="D478" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="E478" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -11043,16 +11034,16 @@
         <v>32</v>
       </c>
       <c r="B479" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C479">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D479" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="E479" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -11060,16 +11051,16 @@
         <v>32</v>
       </c>
       <c r="B480" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C480">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D480" t="s">
-        <v>388</v>
+        <v>431</v>
       </c>
       <c r="E480" t="s">
-        <v>772</v>
+        <v>813</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -11077,16 +11068,16 @@
         <v>32</v>
       </c>
       <c r="B481" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C481">
         <v>2</v>
       </c>
       <c r="D481" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="E481" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -11094,16 +11085,16 @@
         <v>32</v>
       </c>
       <c r="B482" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="C482">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D482" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="E482" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -11111,16 +11102,16 @@
         <v>32</v>
       </c>
       <c r="B483" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C483">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D483" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="E483" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -11128,16 +11119,16 @@
         <v>32</v>
       </c>
       <c r="B484" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C484">
         <v>1</v>
       </c>
       <c r="D484" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="E484" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
     </row>
     <row r="485" spans="1:5">
@@ -11145,237 +11136,237 @@
         <v>32</v>
       </c>
       <c r="B485" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C485">
         <v>1</v>
       </c>
       <c r="D485" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="E485" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
     </row>
     <row r="486" spans="1:5">
       <c r="A486" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B486" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="C486">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D486" t="s">
-        <v>242</v>
+        <v>391</v>
       </c>
       <c r="E486" t="s">
-        <v>626</v>
+        <v>773</v>
       </c>
     </row>
     <row r="487" spans="1:5">
       <c r="A487" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B487" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="C487">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D487" t="s">
-        <v>243</v>
+        <v>437</v>
       </c>
       <c r="E487" t="s">
-        <v>627</v>
+        <v>819</v>
       </c>
     </row>
     <row r="488" spans="1:5">
       <c r="A488" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B488" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C488">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D488" t="s">
-        <v>244</v>
+        <v>438</v>
       </c>
       <c r="E488" t="s">
-        <v>628</v>
+        <v>820</v>
       </c>
     </row>
     <row r="489" spans="1:5">
       <c r="A489" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B489" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C489">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D489" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="E489" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
     </row>
     <row r="490" spans="1:5">
       <c r="A490" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B490" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C490">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D490" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="E490" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
     </row>
     <row r="491" spans="1:5">
       <c r="A491" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B491" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C491">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D491" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="E491" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
     </row>
     <row r="492" spans="1:5">
       <c r="A492" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B492" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C492">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D492" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="E492" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
     </row>
     <row r="493" spans="1:5">
       <c r="A493" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B493" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C493">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D493" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E493" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
     </row>
     <row r="494" spans="1:5">
       <c r="A494" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B494" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C494">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D494" t="s">
-        <v>437</v>
+        <v>309</v>
       </c>
       <c r="E494" t="s">
-        <v>821</v>
+        <v>691</v>
       </c>
     </row>
     <row r="495" spans="1:5">
       <c r="A495" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B495" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C495">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D495" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="E495" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="496" spans="1:5">
       <c r="A496" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B496" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C496">
         <v>2</v>
       </c>
       <c r="D496" t="s">
-        <v>439</v>
+        <v>110</v>
       </c>
       <c r="E496" t="s">
-        <v>823</v>
+        <v>492</v>
       </c>
     </row>
     <row r="497" spans="1:5">
       <c r="A497" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B497" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C497">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D497" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="E497" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
     </row>
     <row r="498" spans="1:5">
       <c r="A498" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B498" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C498">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D498" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="E498" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
     </row>
     <row r="499" spans="1:5">
@@ -11383,16 +11374,16 @@
         <v>33</v>
       </c>
       <c r="B499" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C499">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D499" t="s">
-        <v>389</v>
+        <v>447</v>
       </c>
       <c r="E499" t="s">
-        <v>773</v>
+        <v>829</v>
       </c>
     </row>
     <row r="500" spans="1:5">
@@ -11400,16 +11391,16 @@
         <v>33</v>
       </c>
       <c r="B500" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C500">
         <v>3</v>
       </c>
       <c r="D500" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="E500" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="501" spans="1:5">
@@ -11417,16 +11408,16 @@
         <v>33</v>
       </c>
       <c r="B501" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C501">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D501" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="E501" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="502" spans="1:5">
@@ -11434,16 +11425,16 @@
         <v>33</v>
       </c>
       <c r="B502" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C502">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D502" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="E502" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
     </row>
     <row r="503" spans="1:5">
@@ -11451,16 +11442,16 @@
         <v>33</v>
       </c>
       <c r="B503" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C503">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D503" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="E503" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
     </row>
     <row r="504" spans="1:5">
@@ -11468,16 +11459,16 @@
         <v>33</v>
       </c>
       <c r="B504" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C504">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D504" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="E504" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="505" spans="1:5">
@@ -11485,16 +11476,16 @@
         <v>33</v>
       </c>
       <c r="B505" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C505">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D505" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="E505" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
     </row>
     <row r="506" spans="1:5">
@@ -11502,16 +11493,16 @@
         <v>33</v>
       </c>
       <c r="B506" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C506">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D506" t="s">
-        <v>448</v>
+        <v>312</v>
       </c>
       <c r="E506" t="s">
-        <v>832</v>
+        <v>694</v>
       </c>
     </row>
     <row r="507" spans="1:5">
@@ -11519,16 +11510,16 @@
         <v>33</v>
       </c>
       <c r="B507" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C507">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D507" t="s">
-        <v>307</v>
+        <v>209</v>
       </c>
       <c r="E507" t="s">
-        <v>691</v>
+        <v>591</v>
       </c>
     </row>
     <row r="508" spans="1:5">
@@ -11536,16 +11527,16 @@
         <v>33</v>
       </c>
       <c r="B508" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C508">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D508" t="s">
-        <v>449</v>
+        <v>210</v>
       </c>
       <c r="E508" t="s">
-        <v>833</v>
+        <v>592</v>
       </c>
     </row>
     <row r="509" spans="1:5">
@@ -11553,16 +11544,16 @@
         <v>33</v>
       </c>
       <c r="B509" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C509">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D509" t="s">
-        <v>108</v>
+        <v>211</v>
       </c>
       <c r="E509" t="s">
-        <v>492</v>
+        <v>593</v>
       </c>
     </row>
     <row r="510" spans="1:5">
@@ -11570,16 +11561,16 @@
         <v>33</v>
       </c>
       <c r="B510" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C510">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D510" t="s">
-        <v>450</v>
+        <v>212</v>
       </c>
       <c r="E510" t="s">
-        <v>834</v>
+        <v>594</v>
       </c>
     </row>
     <row r="511" spans="1:5">
@@ -11587,16 +11578,16 @@
         <v>33</v>
       </c>
       <c r="B511" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C511">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D511" t="s">
-        <v>451</v>
+        <v>98</v>
       </c>
       <c r="E511" t="s">
-        <v>835</v>
+        <v>480</v>
       </c>
     </row>
     <row r="512" spans="1:5">
@@ -11604,13 +11595,13 @@
         <v>33</v>
       </c>
       <c r="B512" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C512">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D512" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="E512" t="s">
         <v>836</v>
@@ -11621,16 +11612,16 @@
         <v>33</v>
       </c>
       <c r="B513" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C513">
         <v>3</v>
       </c>
       <c r="D513" t="s">
-        <v>453</v>
+        <v>139</v>
       </c>
       <c r="E513" t="s">
-        <v>837</v>
+        <v>521</v>
       </c>
     </row>
     <row r="514" spans="1:5">
@@ -11638,41 +11629,41 @@
         <v>33</v>
       </c>
       <c r="B514" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C514">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D514" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E514" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="515" spans="1:5">
       <c r="A515" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B515" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C515">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D515" t="s">
-        <v>455</v>
+        <v>128</v>
       </c>
       <c r="E515" t="s">
-        <v>839</v>
+        <v>510</v>
       </c>
     </row>
     <row r="516" spans="1:5">
       <c r="A516" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B516" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C516">
         <v>1</v>
@@ -11681,194 +11672,296 @@
         <v>456</v>
       </c>
       <c r="E516" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="517" spans="1:5">
       <c r="A517" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B517" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C517">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D517" t="s">
-        <v>457</v>
+        <v>94</v>
       </c>
       <c r="E517" t="s">
-        <v>841</v>
+        <v>476</v>
       </c>
     </row>
     <row r="518" spans="1:5">
       <c r="A518" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B518" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C518">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D518" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E518" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="519" spans="1:5">
       <c r="A519" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B519" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="C519">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D519" t="s">
-        <v>310</v>
+        <v>137</v>
       </c>
       <c r="E519" t="s">
-        <v>694</v>
+        <v>519</v>
       </c>
     </row>
     <row r="520" spans="1:5">
       <c r="A520" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B520" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="C520">
         <v>1</v>
       </c>
       <c r="D520" t="s">
-        <v>207</v>
+        <v>458</v>
       </c>
       <c r="E520" t="s">
-        <v>591</v>
+        <v>840</v>
       </c>
     </row>
     <row r="521" spans="1:5">
       <c r="A521" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B521" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="C521">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D521" t="s">
-        <v>208</v>
+        <v>459</v>
       </c>
       <c r="E521" t="s">
-        <v>592</v>
+        <v>841</v>
       </c>
     </row>
     <row r="522" spans="1:5">
       <c r="A522" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B522" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="C522">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D522" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="E522" t="s">
-        <v>593</v>
+        <v>555</v>
       </c>
     </row>
     <row r="523" spans="1:5">
       <c r="A523" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B523" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="C523">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D523" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="E523" t="s">
-        <v>594</v>
+        <v>556</v>
       </c>
     </row>
     <row r="524" spans="1:5">
       <c r="A524" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B524" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C524">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D524" t="s">
-        <v>96</v>
+        <v>175</v>
       </c>
       <c r="E524" t="s">
-        <v>480</v>
+        <v>557</v>
       </c>
     </row>
     <row r="525" spans="1:5">
       <c r="A525" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B525" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C525">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D525" t="s">
-        <v>459</v>
+        <v>95</v>
       </c>
       <c r="E525" t="s">
-        <v>843</v>
+        <v>477</v>
       </c>
     </row>
     <row r="526" spans="1:5">
       <c r="A526" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B526" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="C526">
         <v>3</v>
       </c>
       <c r="D526" t="s">
-        <v>137</v>
+        <v>357</v>
       </c>
       <c r="E526" t="s">
-        <v>521</v>
+        <v>739</v>
       </c>
     </row>
     <row r="527" spans="1:5">
       <c r="A527" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B527" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="C527">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D527" t="s">
+        <v>358</v>
+      </c>
+      <c r="E527" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5">
+      <c r="A528" t="s">
+        <v>34</v>
+      </c>
+      <c r="B528" t="s">
+        <v>67</v>
+      </c>
+      <c r="C528">
+        <v>3</v>
+      </c>
+      <c r="D528" t="s">
         <v>460</v>
       </c>
-      <c r="E527" t="s">
-        <v>844</v>
+      <c r="E528" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5">
+      <c r="A529" t="s">
+        <v>34</v>
+      </c>
+      <c r="B529" t="s">
+        <v>57</v>
+      </c>
+      <c r="C529">
+        <v>6</v>
+      </c>
+      <c r="D529" t="s">
+        <v>129</v>
+      </c>
+      <c r="E529" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5">
+      <c r="A530" t="s">
+        <v>34</v>
+      </c>
+      <c r="B530" t="s">
+        <v>74</v>
+      </c>
+      <c r="C530">
+        <v>5</v>
+      </c>
+      <c r="D530" t="s">
+        <v>86</v>
+      </c>
+      <c r="E530" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5">
+      <c r="A531" t="s">
+        <v>34</v>
+      </c>
+      <c r="B531" t="s">
+        <v>74</v>
+      </c>
+      <c r="C531">
+        <v>5</v>
+      </c>
+      <c r="D531" t="s">
+        <v>87</v>
+      </c>
+      <c r="E531" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5">
+      <c r="A532" t="s">
+        <v>34</v>
+      </c>
+      <c r="B532" t="s">
+        <v>74</v>
+      </c>
+      <c r="C532">
+        <v>5</v>
+      </c>
+      <c r="D532" t="s">
+        <v>88</v>
+      </c>
+      <c r="E532" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5">
+      <c r="A533" t="s">
+        <v>34</v>
+      </c>
+      <c r="B533" t="s">
+        <v>74</v>
+      </c>
+      <c r="C533">
+        <v>5</v>
+      </c>
+      <c r="D533" t="s">
+        <v>89</v>
+      </c>
+      <c r="E533" t="s">
+        <v>471</v>
       </c>
     </row>
   </sheetData>
